--- a/modelos/OBASAL4421651/OBASAL4421651_Sell in_metricas.xlsx
+++ b/modelos/OBASAL4421651/OBASAL4421651_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,681 +473,721 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44859</v>
+        <v>44838</v>
       </c>
       <c r="B2" t="n">
-        <v>1203.727964310035</v>
+        <v>2136.295481526412</v>
       </c>
       <c r="C2" t="n">
-        <v>348.3468571795419</v>
+        <v>1255.216291453953</v>
       </c>
       <c r="D2" t="n">
-        <v>2067.795987092873</v>
+        <v>2943.319498395594</v>
       </c>
       <c r="E2" t="n">
-        <v>1050</v>
+        <v>910</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44852</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44865</v>
+        <v>44845</v>
       </c>
       <c r="B3" t="n">
-        <v>238.9103331804241</v>
+        <v>1985.228379105306</v>
       </c>
       <c r="C3" t="n">
-        <v>-586.8107300872914</v>
+        <v>1150.128491995429</v>
       </c>
       <c r="D3" t="n">
-        <v>1001.882038214926</v>
+        <v>2820.017464336884</v>
       </c>
       <c r="E3" t="n">
-        <v>680</v>
+        <v>1650</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44859</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44869</v>
+        <v>44859</v>
       </c>
       <c r="B4" t="n">
-        <v>206.970015313388</v>
+        <v>1786.579246311787</v>
       </c>
       <c r="C4" t="n">
-        <v>-576.1510064039099</v>
+        <v>924.6632906088037</v>
       </c>
       <c r="D4" t="n">
-        <v>1045.391315624731</v>
+        <v>2691.992467377777</v>
       </c>
       <c r="E4" t="n">
-        <v>640</v>
+        <v>1050</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44866</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44873</v>
+        <v>44865</v>
       </c>
       <c r="B5" t="n">
-        <v>640.2623799054641</v>
+        <v>355.6588101954073</v>
       </c>
       <c r="C5" t="n">
-        <v>-173.2501931409857</v>
+        <v>-471.3429525632906</v>
       </c>
       <c r="D5" t="n">
-        <v>1478.738593476189</v>
+        <v>1217.130405103176</v>
       </c>
       <c r="E5" t="n">
-        <v>1100</v>
+        <v>680</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44880</v>
+        <v>44869</v>
       </c>
       <c r="B6" t="n">
-        <v>451.9738772365105</v>
+        <v>126.3762874500878</v>
       </c>
       <c r="C6" t="n">
-        <v>-341.0402507302097</v>
+        <v>-748.4976362759597</v>
       </c>
       <c r="D6" t="n">
-        <v>1248.119073486751</v>
+        <v>1017.301292748819</v>
       </c>
       <c r="E6" t="n">
-        <v>1360</v>
+        <v>640</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44887</v>
+        <v>44873</v>
       </c>
       <c r="B7" t="n">
-        <v>650.2897065986142</v>
+        <v>483.752891519067</v>
       </c>
       <c r="C7" t="n">
-        <v>-129.3639748882396</v>
+        <v>-356.6781207701574</v>
       </c>
       <c r="D7" t="n">
-        <v>1467.244265287161</v>
+        <v>1349.154188353973</v>
       </c>
       <c r="E7" t="n">
-        <v>1360</v>
+        <v>1100</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44880</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
       <c r="B8" t="n">
-        <v>1003.56671086528</v>
+        <v>403.2433965788013</v>
       </c>
       <c r="C8" t="n">
-        <v>130.3114450525585</v>
+        <v>-467.2429157688508</v>
       </c>
       <c r="D8" t="n">
-        <v>1884.193833246695</v>
+        <v>1204.832048096404</v>
       </c>
       <c r="E8" t="n">
-        <v>1110</v>
+        <v>1360</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44887</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44897</v>
+        <v>44887</v>
       </c>
       <c r="B9" t="n">
-        <v>432.5790449904943</v>
+        <v>729.1306910443478</v>
       </c>
       <c r="C9" t="n">
-        <v>-359.8692745273136</v>
+        <v>-216.3545586191225</v>
       </c>
       <c r="D9" t="n">
-        <v>1233.148110492425</v>
+        <v>1653.387592795328</v>
       </c>
       <c r="E9" t="n">
-        <v>690</v>
+        <v>1360</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
       <c r="B10" t="n">
-        <v>1184.043110879236</v>
+        <v>1029.662416959492</v>
       </c>
       <c r="C10" t="n">
-        <v>385.8251944730894</v>
+        <v>196.8966515490728</v>
       </c>
       <c r="D10" t="n">
-        <v>2017.70711241107</v>
+        <v>1872.82532231364</v>
       </c>
       <c r="E10" t="n">
-        <v>1480</v>
+        <v>1110</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44908</v>
+        <v>44897</v>
       </c>
       <c r="B11" t="n">
-        <v>1272.476575755151</v>
+        <v>427.8983775459616</v>
       </c>
       <c r="C11" t="n">
-        <v>523.751177068707</v>
+        <v>-436.7591723483595</v>
       </c>
       <c r="D11" t="n">
-        <v>2066.060772794666</v>
+        <v>1258.563049202279</v>
       </c>
       <c r="E11" t="n">
-        <v>1440</v>
+        <v>690</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44915</v>
+        <v>44901</v>
       </c>
       <c r="B12" t="n">
-        <v>1350.706668920951</v>
+        <v>1112.301333831132</v>
       </c>
       <c r="C12" t="n">
-        <v>544.1698852709469</v>
+        <v>235.7254092470991</v>
       </c>
       <c r="D12" t="n">
-        <v>2203.057218053513</v>
+        <v>1979.799768581048</v>
       </c>
       <c r="E12" t="n">
-        <v>1270</v>
+        <v>1480</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44908</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
       <c r="B13" t="n">
-        <v>1466.8226359226</v>
+        <v>1220.455545005783</v>
       </c>
       <c r="C13" t="n">
-        <v>706.6750987008115</v>
+        <v>307.3740565979019</v>
       </c>
       <c r="D13" t="n">
-        <v>2248.890787013234</v>
+        <v>2097.927925363702</v>
       </c>
       <c r="E13" t="n">
-        <v>1530</v>
+        <v>1440</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44915</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44929</v>
+        <v>44915</v>
       </c>
       <c r="B14" t="n">
-        <v>1634.352862764166</v>
+        <v>1511.599927309539</v>
       </c>
       <c r="C14" t="n">
-        <v>833.1243869063684</v>
+        <v>641.3233154560904</v>
       </c>
       <c r="D14" t="n">
-        <v>2397.882874546651</v>
+        <v>2367.293655203348</v>
       </c>
       <c r="E14" t="n">
-        <v>1630</v>
+        <v>1270</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44936</v>
+        <v>44922</v>
       </c>
       <c r="B15" t="n">
-        <v>1648.784915873033</v>
+        <v>1873.792501187678</v>
       </c>
       <c r="C15" t="n">
-        <v>897.7192006138503</v>
+        <v>1007.317879847111</v>
       </c>
       <c r="D15" t="n">
-        <v>2543.197737626949</v>
+        <v>2745.295338112258</v>
       </c>
       <c r="E15" t="n">
-        <v>2220</v>
+        <v>1530</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44929</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44943</v>
+        <v>44929</v>
       </c>
       <c r="B16" t="n">
-        <v>1586.082235896455</v>
+        <v>2035.61532063357</v>
       </c>
       <c r="C16" t="n">
-        <v>733.5006528872398</v>
+        <v>1196.515355802557</v>
       </c>
       <c r="D16" t="n">
-        <v>2409.596949518381</v>
+        <v>2870.278659898619</v>
       </c>
       <c r="E16" t="n">
-        <v>2190</v>
+        <v>1630</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44936</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44950</v>
+        <v>44936</v>
       </c>
       <c r="B17" t="n">
-        <v>1438.45719207175</v>
+        <v>1843.723681554316</v>
       </c>
       <c r="C17" t="n">
-        <v>642.6889351109795</v>
+        <v>954.7907661318818</v>
       </c>
       <c r="D17" t="n">
-        <v>2252.404838738735</v>
+        <v>2660.9863938041</v>
       </c>
       <c r="E17" t="n">
-        <v>1430</v>
+        <v>2220</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44943</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44957</v>
+        <v>44943</v>
       </c>
       <c r="B18" t="n">
-        <v>1250.300024746071</v>
+        <v>1557.91156866937</v>
       </c>
       <c r="C18" t="n">
-        <v>468.7534370934075</v>
+        <v>723.7939851520417</v>
       </c>
       <c r="D18" t="n">
-        <v>2033.472296050797</v>
+        <v>2470.794738313083</v>
       </c>
       <c r="E18" t="n">
-        <v>670</v>
+        <v>2190</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44950</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44960</v>
+        <v>44950</v>
       </c>
       <c r="B19" t="n">
-        <v>461.7676659869948</v>
+        <v>1325.714170486569</v>
       </c>
       <c r="C19" t="n">
-        <v>-388.7527831168487</v>
+        <v>443.8536368404447</v>
       </c>
       <c r="D19" t="n">
-        <v>1214.531122334949</v>
+        <v>2173.934171035066</v>
       </c>
       <c r="E19" t="n">
-        <v>320</v>
+        <v>1430</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44957</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
       <c r="B20" t="n">
-        <v>1030.769103486103</v>
+        <v>1157.258926097762</v>
       </c>
       <c r="C20" t="n">
-        <v>246.1078907959773</v>
+        <v>198.2054968290497</v>
       </c>
       <c r="D20" t="n">
-        <v>1887.134350223569</v>
+        <v>1932.531323454137</v>
       </c>
       <c r="E20" t="n">
-        <v>940</v>
+        <v>670</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44971</v>
+        <v>44960</v>
       </c>
       <c r="B21" t="n">
-        <v>881.2414312676923</v>
+        <v>404.2059601126403</v>
       </c>
       <c r="C21" t="n">
-        <v>79.79801844058585</v>
+        <v>-515.775646097387</v>
       </c>
       <c r="D21" t="n">
-        <v>1699.735653957608</v>
+        <v>1276.051109934311</v>
       </c>
       <c r="E21" t="n">
-        <v>870</v>
+        <v>320</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44980</v>
+        <v>44964</v>
       </c>
       <c r="B22" t="n">
-        <v>445.4486606234456</v>
+        <v>1000.673651691752</v>
       </c>
       <c r="C22" t="n">
-        <v>-313.5802571190802</v>
+        <v>117.5220686598611</v>
       </c>
       <c r="D22" t="n">
-        <v>1237.958298642928</v>
+        <v>1878.290499368391</v>
       </c>
       <c r="E22" t="n">
-        <v>1330</v>
+        <v>940</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44978</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44985</v>
+        <v>44971</v>
       </c>
       <c r="B23" t="n">
-        <v>1215.290644638679</v>
+        <v>836.6588002021213</v>
       </c>
       <c r="C23" t="n">
-        <v>338.0448748204413</v>
+        <v>-0.9219614134896003</v>
       </c>
       <c r="D23" t="n">
-        <v>2011.794674447648</v>
+        <v>1663.324099600988</v>
       </c>
       <c r="E23" t="n">
-        <v>710</v>
+        <v>870</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44988</v>
+        <v>44980</v>
       </c>
       <c r="B24" t="n">
-        <v>674.4773826806506</v>
+        <v>411.5258549672403</v>
       </c>
       <c r="C24" t="n">
-        <v>-80.0079218249342</v>
+        <v>-472.6438038805713</v>
       </c>
       <c r="D24" t="n">
-        <v>1491.009351356258</v>
+        <v>1203.994378374279</v>
       </c>
       <c r="E24" t="n">
-        <v>330</v>
+        <v>1330</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
       <c r="B25" t="n">
-        <v>1576.980684091787</v>
+        <v>1121.125432333398</v>
       </c>
       <c r="C25" t="n">
-        <v>768.3749988194695</v>
+        <v>234.6796065276949</v>
       </c>
       <c r="D25" t="n">
-        <v>2344.473789217735</v>
+        <v>1994.087436606176</v>
       </c>
       <c r="E25" t="n">
-        <v>1160</v>
+        <v>710</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44999</v>
+        <v>44988</v>
       </c>
       <c r="B26" t="n">
-        <v>1706.602860335854</v>
+        <v>623.8759907857284</v>
       </c>
       <c r="C26" t="n">
-        <v>884.6790387609528</v>
+        <v>-218.7074126597612</v>
       </c>
       <c r="D26" t="n">
-        <v>2503.542425313839</v>
+        <v>1503.96565289178</v>
       </c>
       <c r="E26" t="n">
-        <v>1480</v>
+        <v>330</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45006</v>
+        <v>44992</v>
       </c>
       <c r="B27" t="n">
-        <v>1314.184783461548</v>
+        <v>1533.390283221493</v>
       </c>
       <c r="C27" t="n">
-        <v>497.5496455026293</v>
+        <v>638.7850788220034</v>
       </c>
       <c r="D27" t="n">
-        <v>2102.922589936717</v>
+        <v>2351.624407745716</v>
       </c>
       <c r="E27" t="n">
-        <v>2020</v>
+        <v>1160</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44999</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45013</v>
+        <v>44999</v>
       </c>
       <c r="B28" t="n">
-        <v>840.8397930125443</v>
+        <v>1664.326846612458</v>
       </c>
       <c r="C28" t="n">
-        <v>23.70603171922669</v>
+        <v>817.2133893262396</v>
       </c>
       <c r="D28" t="n">
-        <v>1636.409929017029</v>
+        <v>2527.852225672581</v>
       </c>
       <c r="E28" t="n">
-        <v>870</v>
+        <v>1480</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45006</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45020</v>
+        <v>45006</v>
       </c>
       <c r="B29" t="n">
-        <v>831.8339860629185</v>
+        <v>1271.933220713057</v>
       </c>
       <c r="C29" t="n">
-        <v>26.8537179134766</v>
+        <v>398.159191254125</v>
       </c>
       <c r="D29" t="n">
-        <v>1601.434551795328</v>
+        <v>2131.089887116931</v>
       </c>
       <c r="E29" t="n">
-        <v>1650</v>
+        <v>2020</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45013</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45027</v>
+        <v>45013</v>
       </c>
       <c r="B30" t="n">
-        <v>1822.012224372359</v>
+        <v>772.2127066490705</v>
       </c>
       <c r="C30" t="n">
-        <v>1045.736500842961</v>
+        <v>-8.649336586700606</v>
       </c>
       <c r="D30" t="n">
-        <v>2592.041224086565</v>
+        <v>1628.796243220207</v>
       </c>
       <c r="E30" t="n">
-        <v>920</v>
+        <v>870</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45020</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45034</v>
+        <v>45020</v>
       </c>
       <c r="B31" t="n">
-        <v>3012.692101940152</v>
+        <v>803.7802960452525</v>
       </c>
       <c r="C31" t="n">
-        <v>2178.162980762764</v>
+        <v>-43.31288689813404</v>
       </c>
       <c r="D31" t="n">
-        <v>3813.330748271893</v>
+        <v>1621.142308327962</v>
       </c>
       <c r="E31" t="n">
-        <v>1940</v>
+        <v>1650</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45027</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45040</v>
+        <v>45027</v>
       </c>
       <c r="B32" t="n">
-        <v>2780.801603142047</v>
+        <v>1801.630319538672</v>
       </c>
       <c r="C32" t="n">
-        <v>1970.570481437207</v>
+        <v>953.9152133371955</v>
       </c>
       <c r="D32" t="n">
-        <v>3574.190386858608</v>
+        <v>2681.07303922215</v>
       </c>
       <c r="E32" t="n">
-        <v>1770</v>
+        <v>920</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45034</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45048</v>
+        <v>45034</v>
       </c>
       <c r="B33" t="n">
-        <v>2877.965467281352</v>
+        <v>3006.079749024189</v>
       </c>
       <c r="C33" t="n">
-        <v>2062.946774870675</v>
+        <v>2138.529743365894</v>
       </c>
       <c r="D33" t="n">
-        <v>3667.727851548471</v>
+        <v>3864.378039151017</v>
       </c>
       <c r="E33" t="n">
-        <v>1100</v>
+        <v>1940</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45041</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45055</v>
+        <v>45040</v>
       </c>
       <c r="B34" t="n">
-        <v>1320.958565682638</v>
+        <v>2766.227800019847</v>
       </c>
       <c r="C34" t="n">
-        <v>514.1298863589991</v>
+        <v>2011.903836892724</v>
       </c>
       <c r="D34" t="n">
-        <v>2095.083462269446</v>
+        <v>3633.05464759141</v>
       </c>
       <c r="E34" t="n">
-        <v>1490</v>
+        <v>1770</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45048</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2805.371963423308</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1914.292396730033</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3623.246785594537</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1268.635858477196</v>
+      </c>
+      <c r="C36" t="n">
+        <v>450.2745320679505</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2196.359111900703</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1490</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B35" t="n">
-        <v>281.661284155702</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-518.0309339241579</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1093.420803099701</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="B37" t="n">
+        <v>256.5876135924067</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-547.5404772332658</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1104.498413600953</v>
+      </c>
+      <c r="E37" t="n">
         <v>830</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F37" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1217,22 +1257,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>98135.81350340124</v>
+        <v>106490.0800663447</v>
       </c>
       <c r="C2" t="n">
-        <v>313.2663619085222</v>
+        <v>326.3281784742849</v>
       </c>
       <c r="D2" t="n">
-        <v>294.1739970909408</v>
+        <v>288.4518214755797</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6341445029325214</v>
+        <v>0.5840178513672423</v>
       </c>
       <c r="F2" t="n">
-        <v>0.559816653641095</v>
+        <v>0.5911972373528351</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6324330037905929</v>
+        <v>0.6645083639830687</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1243,22 +1283,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>438138.5961976463</v>
+        <v>401385.7056675293</v>
       </c>
       <c r="C3" t="n">
-        <v>661.920385089964</v>
+        <v>633.5500814201899</v>
       </c>
       <c r="D3" t="n">
-        <v>582.0217556841881</v>
+        <v>536.3402704333398</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6179600432416152</v>
+        <v>0.5412769180993791</v>
       </c>
       <c r="F3" t="n">
-        <v>0.571074352057654</v>
+        <v>0.4769723379479304</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6788969314321908</v>
+        <v>0.5766959187047114</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666666</v>
@@ -1269,25 +1309,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>364464.9409378637</v>
+        <v>413951.4107520506</v>
       </c>
       <c r="C4" t="n">
-        <v>603.7093182466738</v>
+        <v>643.3905584884275</v>
       </c>
       <c r="D4" t="n">
-        <v>443.9747655155285</v>
+        <v>515.9746150582536</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3635187544214791</v>
+        <v>0.4274735673709203</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2573040919490841</v>
+        <v>0.288624854488872</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3495093382119781</v>
+        <v>0.400182558149013</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8148148148148143</v>
+        <v>0.7931034482758624</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASAL4421651/OBASAL4421651_Sell in_metricas.xlsx
+++ b/modelos/OBASAL4421651/OBASAL4421651_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,99 +473,99 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1947.892154996249</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1066.985131594511</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2790.525356977501</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>44838</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2136.295481526412</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1255.216291453953</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2943.319498395594</v>
-      </c>
-      <c r="E2" t="n">
-        <v>910</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44845</v>
+        <v>44859</v>
       </c>
       <c r="B3" t="n">
-        <v>1985.228379105306</v>
+        <v>1763.367926629968</v>
       </c>
       <c r="C3" t="n">
-        <v>1150.128491995429</v>
+        <v>906.1341652449382</v>
       </c>
       <c r="D3" t="n">
-        <v>2820.017464336884</v>
+        <v>2650.975555919242</v>
       </c>
       <c r="E3" t="n">
-        <v>1650</v>
+        <v>1050</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44838</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B4" t="n">
+        <v>362.3257740293266</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-470.166941792458</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1290.851113719321</v>
+      </c>
+      <c r="E4" t="n">
+        <v>680</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>44859</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1786.579246311787</v>
-      </c>
-      <c r="C4" t="n">
-        <v>924.6632906088037</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2691.992467377777</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1050</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>44852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44865</v>
+        <v>44869</v>
       </c>
       <c r="B5" t="n">
-        <v>355.6588101954073</v>
+        <v>139.7116798031143</v>
       </c>
       <c r="C5" t="n">
-        <v>-471.3429525632906</v>
+        <v>-806.3078826010393</v>
       </c>
       <c r="D5" t="n">
-        <v>1217.130405103176</v>
+        <v>962.9675301496576</v>
       </c>
       <c r="E5" t="n">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="B6" t="n">
-        <v>126.3762874500878</v>
+        <v>493.870841229737</v>
       </c>
       <c r="C6" t="n">
-        <v>-748.4976362759597</v>
+        <v>-338.760500891814</v>
       </c>
       <c r="D6" t="n">
-        <v>1017.301292748819</v>
+        <v>1352.411140924346</v>
       </c>
       <c r="E6" t="n">
-        <v>640</v>
+        <v>1100</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>44866</v>
@@ -573,99 +573,99 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B7" t="n">
+        <v>357.7979293487129</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-565.8040474263856</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1223.167318760833</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1360</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>44873</v>
-      </c>
-      <c r="B7" t="n">
-        <v>483.752891519067</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-356.6781207701574</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1349.154188353973</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>44866</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44880</v>
+        <v>44887</v>
       </c>
       <c r="B8" t="n">
-        <v>403.2433965788013</v>
+        <v>677.9677998103517</v>
       </c>
       <c r="C8" t="n">
-        <v>-467.2429157688508</v>
+        <v>-278.3391555970319</v>
       </c>
       <c r="D8" t="n">
-        <v>1204.832048096404</v>
+        <v>1580.04846258244</v>
       </c>
       <c r="E8" t="n">
         <v>1360</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44873</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1051.955994995535</v>
+      </c>
+      <c r="C9" t="n">
+        <v>239.9231150421125</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1948.827752203778</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1110</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>44887</v>
-      </c>
-      <c r="B9" t="n">
-        <v>729.1306910443478</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-216.3545586191225</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1653.387592795328</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1360</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>44880</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="B10" t="n">
+        <v>476.5233146624122</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-379.0309962309092</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1340.920624382288</v>
+      </c>
+      <c r="E10" t="n">
+        <v>690</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>44894</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1029.662416959492</v>
-      </c>
-      <c r="C10" t="n">
-        <v>196.8966515490728</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1872.82532231364</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1110</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>44887</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="B11" t="n">
-        <v>427.8983775459616</v>
+        <v>1170.139110460025</v>
       </c>
       <c r="C11" t="n">
-        <v>-436.7591723483595</v>
+        <v>333.078329394547</v>
       </c>
       <c r="D11" t="n">
-        <v>1258.563049202279</v>
+        <v>2024.407910887756</v>
       </c>
       <c r="E11" t="n">
-        <v>690</v>
+        <v>1480</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>44894</v>
@@ -673,199 +673,199 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1211.137965324115</v>
+      </c>
+      <c r="C12" t="n">
+        <v>342.5926162804301</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2078.556595622308</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1440</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>44901</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1112.301333831132</v>
-      </c>
-      <c r="C12" t="n">
-        <v>235.7254092470991</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1979.799768581048</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1480</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>44894</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1310.092970395792</v>
+      </c>
+      <c r="C13" t="n">
+        <v>426.470810565646</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2134.408691315968</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1270</v>
+      </c>
+      <c r="F13" s="2" t="n">
         <v>44908</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1220.455545005783</v>
-      </c>
-      <c r="C13" t="n">
-        <v>307.3740565979019</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2097.927925363702</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1440</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>44901</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
+        <v>44922</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1470.302562483178</v>
+      </c>
+      <c r="C14" t="n">
+        <v>591.6143154010686</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2244.459237814041</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1530</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>44915</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1511.599927309539</v>
-      </c>
-      <c r="C14" t="n">
-        <v>641.3233154560904</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2367.293655203348</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1270</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>44908</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1625.202274547953</v>
+      </c>
+      <c r="C15" t="n">
+        <v>754.8758507558334</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2542.472136810983</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1630</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>44922</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1873.792501187678</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1007.317879847111</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2745.295338112258</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1530</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>44915</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1586.817893882798</v>
+      </c>
+      <c r="C16" t="n">
+        <v>712.451393396738</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2487.171075719704</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2220</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>44929</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2035.61532063357</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1196.515355802557</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2870.278659898619</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1630</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>44922</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1508.194338798771</v>
+      </c>
+      <c r="C17" t="n">
+        <v>683.7903489104223</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2356.502547082131</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2190</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>44936</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1843.723681554316</v>
-      </c>
-      <c r="C17" t="n">
-        <v>954.7907661318818</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2660.9863938041</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2220</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>44929</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1370.50900693474</v>
+      </c>
+      <c r="C18" t="n">
+        <v>512.3359177490106</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2208.280620634072</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1430</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>44943</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1557.91156866937</v>
-      </c>
-      <c r="C18" t="n">
-        <v>723.7939851520417</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2470.794738313083</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2190</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>44936</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1224.576993631819</v>
+      </c>
+      <c r="C19" t="n">
+        <v>370.92450792459</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2135.068096485274</v>
+      </c>
+      <c r="E19" t="n">
+        <v>670</v>
+      </c>
+      <c r="F19" s="2" t="n">
         <v>44950</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1325.714170486569</v>
-      </c>
-      <c r="C19" t="n">
-        <v>443.8536368404447</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2173.934171035066</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1430</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>44943</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B20" t="n">
+        <v>445.271570515894</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-446.634124737323</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1323.561290298083</v>
+      </c>
+      <c r="E20" t="n">
+        <v>320</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>44957</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1157.258926097762</v>
-      </c>
-      <c r="C20" t="n">
-        <v>198.2054968290497</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1932.531323454137</v>
-      </c>
-      <c r="E20" t="n">
-        <v>670</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>44950</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="B21" t="n">
-        <v>404.2059601126403</v>
+        <v>1012.683466317471</v>
       </c>
       <c r="C21" t="n">
-        <v>-515.775646097387</v>
+        <v>119.0377535384874</v>
       </c>
       <c r="D21" t="n">
-        <v>1276.051109934311</v>
+        <v>1894.787403451</v>
       </c>
       <c r="E21" t="n">
-        <v>320</v>
+        <v>940</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>44957</v>
@@ -873,59 +873,59 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B22" t="n">
+        <v>832.9236673613052</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.715704944238803</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1700.084267033368</v>
+      </c>
+      <c r="E22" t="n">
+        <v>870</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <v>44964</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1000.673651691752</v>
-      </c>
-      <c r="C22" t="n">
-        <v>117.5220686598611</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1878.290499368391</v>
-      </c>
-      <c r="E22" t="n">
-        <v>940</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>44957</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44971</v>
+        <v>44980</v>
       </c>
       <c r="B23" t="n">
-        <v>836.6588002021213</v>
+        <v>280.3087960708681</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.9219614134896003</v>
+        <v>-584.6349941250792</v>
       </c>
       <c r="D23" t="n">
-        <v>1663.324099600988</v>
+        <v>1085.578240550171</v>
       </c>
       <c r="E23" t="n">
-        <v>870</v>
+        <v>1330</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="B24" t="n">
-        <v>411.5258549672403</v>
+        <v>1160.12284287372</v>
       </c>
       <c r="C24" t="n">
-        <v>-472.6438038805713</v>
+        <v>289.5602812547644</v>
       </c>
       <c r="D24" t="n">
-        <v>1203.994378374279</v>
+        <v>1959.307107805445</v>
       </c>
       <c r="E24" t="n">
-        <v>1330</v>
+        <v>710</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>44978</v>
@@ -933,39 +933,39 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B25" t="n">
+        <v>640.4503121176542</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-246.6763021012073</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1491.513961370381</v>
+      </c>
+      <c r="E25" t="n">
+        <v>330</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1121.125432333398</v>
-      </c>
-      <c r="C25" t="n">
-        <v>234.6796065276949</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1994.087436606176</v>
-      </c>
-      <c r="E25" t="n">
-        <v>710</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="B26" t="n">
-        <v>623.8759907857284</v>
+        <v>1573.754529133118</v>
       </c>
       <c r="C26" t="n">
-        <v>-218.7074126597612</v>
+        <v>727.5617613336885</v>
       </c>
       <c r="D26" t="n">
-        <v>1503.96565289178</v>
+        <v>2405.211460346272</v>
       </c>
       <c r="E26" t="n">
-        <v>330</v>
+        <v>1160</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>44985</v>
@@ -973,221 +973,201 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1673.151074117273</v>
+      </c>
+      <c r="C27" t="n">
+        <v>852.9094961397089</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2457.596718854652</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1480</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <v>44992</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1533.390283221493</v>
-      </c>
-      <c r="C27" t="n">
-        <v>638.7850788220034</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2351.624407745716</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1160</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>44985</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1267.946767153125</v>
+      </c>
+      <c r="C28" t="n">
+        <v>445.2415324053327</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2017.087188482121</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F28" s="2" t="n">
         <v>44999</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1664.326846612458</v>
-      </c>
-      <c r="C28" t="n">
-        <v>817.2133893262396</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2527.852225672581</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1480</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>44992</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B29" t="n">
+        <v>778.0201571994346</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-49.81981996466589</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1634.048550241229</v>
+      </c>
+      <c r="E29" t="n">
+        <v>870</v>
+      </c>
+      <c r="F29" s="2" t="n">
         <v>45006</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1271.933220713057</v>
-      </c>
-      <c r="C29" t="n">
-        <v>398.159191254125</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2131.089887116931</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>44999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B30" t="n">
+        <v>812.3917719197318</v>
+      </c>
+      <c r="C30" t="n">
+        <v>41.35958935419029</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1681.155243325307</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F30" s="2" t="n">
         <v>45013</v>
-      </c>
-      <c r="B30" t="n">
-        <v>772.2127066490705</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-8.649336586700606</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1628.796243220207</v>
-      </c>
-      <c r="E30" t="n">
-        <v>870</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>45006</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1811.592351094186</v>
+      </c>
+      <c r="C31" t="n">
+        <v>940.8779504919461</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2631.965080945517</v>
+      </c>
+      <c r="E31" t="n">
+        <v>920</v>
+      </c>
+      <c r="F31" s="2" t="n">
         <v>45020</v>
-      </c>
-      <c r="B31" t="n">
-        <v>803.7802960452525</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-43.31288689813404</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1621.142308327962</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1650</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>45013</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2993.848556853029</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2040.809436647987</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3912.913293864568</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1940</v>
+      </c>
+      <c r="F32" s="2" t="n">
         <v>45027</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1801.630319538672</v>
-      </c>
-      <c r="C32" t="n">
-        <v>953.9152133371955</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2681.07303922215</v>
-      </c>
-      <c r="E32" t="n">
-        <v>920</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>45020</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2708.445950766101</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1817.485624642153</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3491.972819902363</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1770</v>
+      </c>
+      <c r="F33" s="2" t="n">
         <v>45034</v>
-      </c>
-      <c r="B33" t="n">
-        <v>3006.079749024189</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2138.529743365894</v>
-      </c>
-      <c r="D33" t="n">
-        <v>3864.378039151017</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1940</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>45027</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45040</v>
+        <v>45048</v>
       </c>
       <c r="B34" t="n">
-        <v>2766.227800019847</v>
+        <v>2819.049929706308</v>
       </c>
       <c r="C34" t="n">
-        <v>2011.903836892724</v>
+        <v>1967.190313429632</v>
       </c>
       <c r="D34" t="n">
-        <v>3633.05464759141</v>
+        <v>3744.219975748705</v>
       </c>
       <c r="E34" t="n">
-        <v>1770</v>
+        <v>1100</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45034</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1295.12383481172</v>
+      </c>
+      <c r="C35" t="n">
+        <v>356.8036955783561</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2118.688103823428</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1490</v>
+      </c>
+      <c r="F35" s="2" t="n">
         <v>45048</v>
-      </c>
-      <c r="B35" t="n">
-        <v>2805.371963423308</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1914.292396730033</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3623.246785594537</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>45041</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="B36" t="n">
-        <v>1268.635858477196</v>
+        <v>276.757773587557</v>
       </c>
       <c r="C36" t="n">
-        <v>450.2745320679505</v>
+        <v>-599.4446113766327</v>
       </c>
       <c r="D36" t="n">
-        <v>2196.359111900703</v>
+        <v>1104.796314358419</v>
       </c>
       <c r="E36" t="n">
-        <v>1490</v>
+        <v>830</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B37" t="n">
-        <v>256.5876135924067</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-547.5404772332658</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1104.498413600953</v>
-      </c>
-      <c r="E37" t="n">
-        <v>830</v>
-      </c>
-      <c r="F37" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1257,22 +1237,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>106490.0800663447</v>
+        <v>101983.2652954032</v>
       </c>
       <c r="C2" t="n">
-        <v>326.3281784742849</v>
+        <v>319.3481881824338</v>
       </c>
       <c r="D2" t="n">
-        <v>288.4518214755797</v>
+        <v>287.3717220420054</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5840178513672423</v>
+        <v>0.6058297950569274</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5911972373528351</v>
+        <v>0.5865870790849014</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6645083639830687</v>
+        <v>0.6541169453370095</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1283,22 +1263,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>401385.7056675293</v>
+        <v>361193.6605502535</v>
       </c>
       <c r="C3" t="n">
-        <v>633.5500814201899</v>
+        <v>600.9938939375786</v>
       </c>
       <c r="D3" t="n">
-        <v>536.3402704333398</v>
+        <v>514.4972995929265</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5412769180993791</v>
+        <v>0.534397742278597</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4769723379479304</v>
+        <v>0.4671679793686374</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5766959187047114</v>
+        <v>0.5609200781891265</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666666</v>
@@ -1309,25 +1289,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>413951.4107520506</v>
+        <v>380948.2687818197</v>
       </c>
       <c r="C4" t="n">
-        <v>643.3905584884275</v>
+        <v>617.2100686004885</v>
       </c>
       <c r="D4" t="n">
-        <v>515.9746150582536</v>
+        <v>471.1811823535766</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4274735673709203</v>
+        <v>0.3824501437253136</v>
       </c>
       <c r="F4" t="n">
-        <v>0.288624854488872</v>
+        <v>0.2982719754271465</v>
       </c>
       <c r="G4" t="n">
-        <v>0.400182558149013</v>
+        <v>0.3751335111233842</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7931034482758624</v>
+        <v>0.8214285714285717</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASAL4421651/OBASAL4421651_Sell in_metricas.xlsx
+++ b/modelos/OBASAL4421651/OBASAL4421651_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,99 +473,99 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="B2" t="n">
-        <v>1947.892154996249</v>
+        <v>1370.755192795402</v>
       </c>
       <c r="C2" t="n">
-        <v>1066.985131594511</v>
+        <v>504.3215970779652</v>
       </c>
       <c r="D2" t="n">
-        <v>2790.525356977501</v>
+        <v>2190.46829549159</v>
       </c>
       <c r="E2" t="n">
-        <v>1650</v>
+        <v>910</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44859</v>
+        <v>44845</v>
       </c>
       <c r="B3" t="n">
-        <v>1763.367926629968</v>
+        <v>1064.375531883896</v>
       </c>
       <c r="C3" t="n">
-        <v>906.1341652449382</v>
+        <v>179.6385170925005</v>
       </c>
       <c r="D3" t="n">
-        <v>2650.975555919242</v>
+        <v>1926.583328701475</v>
       </c>
       <c r="E3" t="n">
-        <v>1050</v>
+        <v>1650</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44852</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44865</v>
+        <v>44859</v>
       </c>
       <c r="B4" t="n">
-        <v>362.3257740293266</v>
+        <v>1265.275806518645</v>
       </c>
       <c r="C4" t="n">
-        <v>-470.166941792458</v>
+        <v>437.0206624868001</v>
       </c>
       <c r="D4" t="n">
-        <v>1290.851113719321</v>
+        <v>2144.919138067575</v>
       </c>
       <c r="E4" t="n">
-        <v>680</v>
+        <v>1050</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="B5" t="n">
-        <v>139.7116798031143</v>
+        <v>295.1678229518332</v>
       </c>
       <c r="C5" t="n">
-        <v>-806.3078826010393</v>
+        <v>-456.5533773480546</v>
       </c>
       <c r="D5" t="n">
-        <v>962.9675301496576</v>
+        <v>1070.964161119085</v>
       </c>
       <c r="E5" t="n">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="B6" t="n">
-        <v>493.870841229737</v>
+        <v>217.3039930745729</v>
       </c>
       <c r="C6" t="n">
-        <v>-338.760500891814</v>
+        <v>-562.9165627441354</v>
       </c>
       <c r="D6" t="n">
-        <v>1352.411140924346</v>
+        <v>1003.109053311174</v>
       </c>
       <c r="E6" t="n">
-        <v>1100</v>
+        <v>640</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>44866</v>
@@ -573,99 +573,99 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
       <c r="B7" t="n">
-        <v>357.7979293487129</v>
+        <v>651.430244834527</v>
       </c>
       <c r="C7" t="n">
-        <v>-565.8040474263856</v>
+        <v>-134.2313871966273</v>
       </c>
       <c r="D7" t="n">
-        <v>1223.167318760833</v>
+        <v>1390.55319890839</v>
       </c>
       <c r="E7" t="n">
-        <v>1360</v>
+        <v>1100</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
       <c r="B8" t="n">
-        <v>677.9677998103517</v>
+        <v>499.6571775485536</v>
       </c>
       <c r="C8" t="n">
-        <v>-278.3391555970319</v>
+        <v>-334.8589147861317</v>
       </c>
       <c r="D8" t="n">
-        <v>1580.04846258244</v>
+        <v>1279.762656926991</v>
       </c>
       <c r="E8" t="n">
         <v>1360</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
       <c r="B9" t="n">
-        <v>1051.955994995535</v>
+        <v>704.6035169543638</v>
       </c>
       <c r="C9" t="n">
-        <v>239.9231150421125</v>
+        <v>-142.5024363225383</v>
       </c>
       <c r="D9" t="n">
-        <v>1948.827752203778</v>
+        <v>1525.555141629988</v>
       </c>
       <c r="E9" t="n">
-        <v>1110</v>
+        <v>1360</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="B10" t="n">
-        <v>476.5233146624122</v>
+        <v>990.6989409625851</v>
       </c>
       <c r="C10" t="n">
-        <v>-379.0309962309092</v>
+        <v>186.1234939203334</v>
       </c>
       <c r="D10" t="n">
-        <v>1340.920624382288</v>
+        <v>1810.227988734467</v>
       </c>
       <c r="E10" t="n">
-        <v>690</v>
+        <v>1110</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44901</v>
+        <v>44897</v>
       </c>
       <c r="B11" t="n">
-        <v>1170.139110460025</v>
+        <v>413.4025268655652</v>
       </c>
       <c r="C11" t="n">
-        <v>333.078329394547</v>
+        <v>-397.5268833371096</v>
       </c>
       <c r="D11" t="n">
-        <v>2024.407910887756</v>
+        <v>1168.142736676924</v>
       </c>
       <c r="E11" t="n">
-        <v>1480</v>
+        <v>690</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>44894</v>
@@ -673,199 +673,199 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
       <c r="B12" t="n">
-        <v>1211.137965324115</v>
+        <v>1118.408432418789</v>
       </c>
       <c r="C12" t="n">
-        <v>342.5926162804301</v>
+        <v>264.5327560224541</v>
       </c>
       <c r="D12" t="n">
-        <v>2078.556595622308</v>
+        <v>1922.428811374323</v>
       </c>
       <c r="E12" t="n">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B13" t="n">
-        <v>1310.092970395792</v>
+        <v>1296.758294443591</v>
       </c>
       <c r="C13" t="n">
-        <v>426.470810565646</v>
+        <v>437.7222752109839</v>
       </c>
       <c r="D13" t="n">
-        <v>2134.408691315968</v>
+        <v>2119.853718511816</v>
       </c>
       <c r="E13" t="n">
-        <v>1270</v>
+        <v>1440</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
       <c r="B14" t="n">
-        <v>1470.302562483178</v>
+        <v>1571.02677857624</v>
       </c>
       <c r="C14" t="n">
-        <v>591.6143154010686</v>
+        <v>695.5036767573663</v>
       </c>
       <c r="D14" t="n">
-        <v>2244.459237814041</v>
+        <v>2329.406450905943</v>
       </c>
       <c r="E14" t="n">
-        <v>1530</v>
+        <v>1270</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
       <c r="B15" t="n">
-        <v>1625.202274547953</v>
+        <v>1879.415739147698</v>
       </c>
       <c r="C15" t="n">
-        <v>754.8758507558334</v>
+        <v>1061.573702605657</v>
       </c>
       <c r="D15" t="n">
-        <v>2542.472136810983</v>
+        <v>2681.078901397369</v>
       </c>
       <c r="E15" t="n">
-        <v>1630</v>
+        <v>1530</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
       <c r="B16" t="n">
-        <v>1586.817893882798</v>
+        <v>2007.00115555252</v>
       </c>
       <c r="C16" t="n">
-        <v>712.451393396738</v>
+        <v>1173.83028596846</v>
       </c>
       <c r="D16" t="n">
-        <v>2487.171075719704</v>
+        <v>2811.152529150449</v>
       </c>
       <c r="E16" t="n">
-        <v>2220</v>
+        <v>1630</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
       <c r="B17" t="n">
-        <v>1508.194338798771</v>
+        <v>1875.897084103289</v>
       </c>
       <c r="C17" t="n">
-        <v>683.7903489104223</v>
+        <v>1085.058852406741</v>
       </c>
       <c r="D17" t="n">
-        <v>2356.502547082131</v>
+        <v>2712.12721027183</v>
       </c>
       <c r="E17" t="n">
-        <v>2190</v>
+        <v>2220</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
       <c r="B18" t="n">
-        <v>1370.50900693474</v>
+        <v>1634.928858626571</v>
       </c>
       <c r="C18" t="n">
-        <v>512.3359177490106</v>
+        <v>817.0271734042232</v>
       </c>
       <c r="D18" t="n">
-        <v>2208.280620634072</v>
+        <v>2411.911024833369</v>
       </c>
       <c r="E18" t="n">
-        <v>1430</v>
+        <v>2190</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
       <c r="B19" t="n">
-        <v>1224.576993631819</v>
+        <v>1378.545959814539</v>
       </c>
       <c r="C19" t="n">
-        <v>370.92450792459</v>
+        <v>631.9696586158683</v>
       </c>
       <c r="D19" t="n">
-        <v>2135.068096485274</v>
+        <v>2086.560906164743</v>
       </c>
       <c r="E19" t="n">
-        <v>670</v>
+        <v>1430</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44960</v>
+        <v>44957</v>
       </c>
       <c r="B20" t="n">
-        <v>445.271570515894</v>
+        <v>1202.165659902415</v>
       </c>
       <c r="C20" t="n">
-        <v>-446.634124737323</v>
+        <v>411.6579881123585</v>
       </c>
       <c r="D20" t="n">
-        <v>1323.561290298083</v>
+        <v>2048.958223344119</v>
       </c>
       <c r="E20" t="n">
-        <v>320</v>
+        <v>670</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B21" t="n">
-        <v>1012.683466317471</v>
+        <v>440.9593595074402</v>
       </c>
       <c r="C21" t="n">
-        <v>119.0377535384874</v>
+        <v>-346.8820534803788</v>
       </c>
       <c r="D21" t="n">
-        <v>1894.787403451</v>
+        <v>1220.99527280913</v>
       </c>
       <c r="E21" t="n">
-        <v>940</v>
+        <v>320</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>44957</v>
@@ -873,59 +873,59 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B22" t="n">
-        <v>832.9236673613052</v>
+        <v>1019.107444114211</v>
       </c>
       <c r="C22" t="n">
-        <v>6.715704944238803</v>
+        <v>181.2733195889439</v>
       </c>
       <c r="D22" t="n">
-        <v>1700.084267033368</v>
+        <v>1868.073074098492</v>
       </c>
       <c r="E22" t="n">
-        <v>870</v>
+        <v>940</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B23" t="n">
-        <v>280.3087960708681</v>
+        <v>889.8422358079142</v>
       </c>
       <c r="C23" t="n">
-        <v>-584.6349941250792</v>
+        <v>44.30200965983723</v>
       </c>
       <c r="D23" t="n">
-        <v>1085.578240550171</v>
+        <v>1717.462609434401</v>
       </c>
       <c r="E23" t="n">
-        <v>1330</v>
+        <v>870</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B24" t="n">
-        <v>1160.12284287372</v>
+        <v>563.8650427902323</v>
       </c>
       <c r="C24" t="n">
-        <v>289.5602812547644</v>
+        <v>-214.5596444030686</v>
       </c>
       <c r="D24" t="n">
-        <v>1959.307107805445</v>
+        <v>1350.268550262804</v>
       </c>
       <c r="E24" t="n">
-        <v>710</v>
+        <v>1330</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>44978</v>
@@ -933,39 +933,39 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B25" t="n">
-        <v>640.4503121176542</v>
+        <v>1148.844214947097</v>
       </c>
       <c r="C25" t="n">
-        <v>-246.6763021012073</v>
+        <v>341.6059724054083</v>
       </c>
       <c r="D25" t="n">
-        <v>1491.513961370381</v>
+        <v>1924.490118751491</v>
       </c>
       <c r="E25" t="n">
-        <v>330</v>
+        <v>710</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B26" t="n">
-        <v>1573.754529133118</v>
+        <v>661.5102829861737</v>
       </c>
       <c r="C26" t="n">
-        <v>727.5617613336885</v>
+        <v>-128.0925857473962</v>
       </c>
       <c r="D26" t="n">
-        <v>2405.211460346272</v>
+        <v>1448.554797738049</v>
       </c>
       <c r="E26" t="n">
-        <v>1160</v>
+        <v>330</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>44985</v>
@@ -973,201 +973,221 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B27" t="n">
-        <v>1673.151074117273</v>
+        <v>1575.433258264227</v>
       </c>
       <c r="C27" t="n">
-        <v>852.9094961397089</v>
+        <v>777.604485440446</v>
       </c>
       <c r="D27" t="n">
-        <v>2457.596718854652</v>
+        <v>2337.121161394912</v>
       </c>
       <c r="E27" t="n">
-        <v>1480</v>
+        <v>1160</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
       <c r="B28" t="n">
-        <v>1267.946767153125</v>
+        <v>1674.974497879353</v>
       </c>
       <c r="C28" t="n">
-        <v>445.2415324053327</v>
+        <v>862.6013517414891</v>
       </c>
       <c r="D28" t="n">
-        <v>2017.087188482121</v>
+        <v>2439.570669121138</v>
       </c>
       <c r="E28" t="n">
-        <v>2020</v>
+        <v>1480</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="B29" t="n">
-        <v>778.0201571994346</v>
+        <v>1314.356394976777</v>
       </c>
       <c r="C29" t="n">
-        <v>-49.81981996466589</v>
+        <v>564.5122705706613</v>
       </c>
       <c r="D29" t="n">
-        <v>1634.048550241229</v>
+        <v>2089.629335875555</v>
       </c>
       <c r="E29" t="n">
-        <v>870</v>
+        <v>2020</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B30" t="n">
-        <v>812.3917719197318</v>
+        <v>831.6756615572525</v>
       </c>
       <c r="C30" t="n">
-        <v>41.35958935419029</v>
+        <v>28.56266444203726</v>
       </c>
       <c r="D30" t="n">
-        <v>1681.155243325307</v>
+        <v>1612.973971372769</v>
       </c>
       <c r="E30" t="n">
-        <v>1650</v>
+        <v>870</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B31" t="n">
-        <v>1811.592351094186</v>
+        <v>807.5992258779179</v>
       </c>
       <c r="C31" t="n">
-        <v>940.8779504919461</v>
+        <v>-7.725373712954745</v>
       </c>
       <c r="D31" t="n">
-        <v>2631.965080945517</v>
+        <v>1580.474047801938</v>
       </c>
       <c r="E31" t="n">
-        <v>920</v>
+        <v>1650</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
       <c r="B32" t="n">
-        <v>2993.848556853029</v>
+        <v>1802.456203307273</v>
       </c>
       <c r="C32" t="n">
-        <v>2040.809436647987</v>
+        <v>952.8932085381862</v>
       </c>
       <c r="D32" t="n">
-        <v>3912.913293864568</v>
+        <v>2577.845332276941</v>
       </c>
       <c r="E32" t="n">
-        <v>1940</v>
+        <v>920</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45040</v>
+        <v>45034</v>
       </c>
       <c r="B33" t="n">
-        <v>2708.445950766101</v>
+        <v>2988.277509285457</v>
       </c>
       <c r="C33" t="n">
-        <v>1817.485624642153</v>
+        <v>2229.064089832339</v>
       </c>
       <c r="D33" t="n">
-        <v>3491.972819902363</v>
+        <v>3692.256146390677</v>
       </c>
       <c r="E33" t="n">
-        <v>1770</v>
+        <v>1940</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B34" t="n">
-        <v>2819.049929706308</v>
+        <v>2812.662479155157</v>
       </c>
       <c r="C34" t="n">
-        <v>1967.190313429632</v>
+        <v>1988.27036226421</v>
       </c>
       <c r="D34" t="n">
-        <v>3744.219975748705</v>
+        <v>3526.875932786607</v>
       </c>
       <c r="E34" t="n">
-        <v>1100</v>
+        <v>1770</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B35" t="n">
-        <v>1295.12383481172</v>
+        <v>2873.308551387263</v>
       </c>
       <c r="C35" t="n">
-        <v>356.8036955783561</v>
+        <v>2102.749270814203</v>
       </c>
       <c r="D35" t="n">
-        <v>2118.688103823428</v>
+        <v>3642.103740021622</v>
       </c>
       <c r="E35" t="n">
-        <v>1490</v>
+        <v>1100</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1284.287105121479</v>
+      </c>
+      <c r="C36" t="n">
+        <v>514.7350429393689</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2112.645718438695</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1490</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B36" t="n">
-        <v>276.757773587557</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-599.4446113766327</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1104.796314358419</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="B37" t="n">
+        <v>274.4243985824241</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-476.1789465781968</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1082.116047137937</v>
+      </c>
+      <c r="E37" t="n">
         <v>830</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F37" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1237,22 +1257,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>101983.2652954032</v>
+        <v>94927.07769826957</v>
       </c>
       <c r="C2" t="n">
-        <v>319.3481881824338</v>
+        <v>308.1023818445252</v>
       </c>
       <c r="D2" t="n">
-        <v>287.3717220420054</v>
+        <v>287.9407806383689</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6058297950569274</v>
+        <v>0.6109757568711829</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5865870790849014</v>
+        <v>0.5306642069571817</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6541169453370095</v>
+        <v>0.6185173566374812</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1263,22 +1283,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>361193.6605502535</v>
+        <v>443389.309209293</v>
       </c>
       <c r="C3" t="n">
-        <v>600.9938939375786</v>
+        <v>665.8748450041442</v>
       </c>
       <c r="D3" t="n">
-        <v>514.4972995929265</v>
+        <v>571.8118122805641</v>
       </c>
       <c r="E3" t="n">
-        <v>0.534397742278597</v>
+        <v>0.5886600919937183</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4671679793686374</v>
+        <v>0.5659296721296572</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5609200781891265</v>
+        <v>0.6209424788570611</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666666</v>
@@ -1289,25 +1309,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>380948.2687818197</v>
+        <v>351632.3098039298</v>
       </c>
       <c r="C4" t="n">
-        <v>617.2100686004885</v>
+        <v>592.9859271550463</v>
       </c>
       <c r="D4" t="n">
-        <v>471.1811823535766</v>
+        <v>467.5943937854881</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3824501437253136</v>
+        <v>0.379764877470756</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2982719754271465</v>
+        <v>0.2534571421796481</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3751335111233842</v>
+        <v>0.3639804174296615</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8214285714285717</v>
+        <v>0.8275862068965516</v>
       </c>
     </row>
   </sheetData>
